--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Tolliver.Fall.120820.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Tolliver.Fall.120820.xlsx_with_dialog_acts.xlsx
@@ -601,12 +601,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -769,12 +769,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2155,12 +2155,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2575,12 +2575,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3667,12 +3667,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3793,12 +3793,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3961,12 +3961,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4423,12 +4423,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4591,12 +4591,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4633,12 +4633,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4927,12 +4927,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5645,12 +5645,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6191,12 +6191,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6703,12 +6703,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7039,12 +7039,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7249,12 +7249,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7715,12 +7715,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7841,12 +7841,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8219,12 +8219,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8517,12 +8517,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8559,12 +8559,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9369,12 +9369,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9957,12 +9957,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10041,12 +10041,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10293,12 +10293,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11683,12 +11683,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12989,12 +12989,12 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13031,12 +13031,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13451,12 +13451,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13577,12 +13577,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13619,12 +13619,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14863,12 +14863,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15351,12 +15351,12 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15511,12 +15511,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15751,12 +15751,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15791,12 +15791,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15955,12 +15955,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16359,12 +16359,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16399,12 +16399,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16879,12 +16879,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17123,12 +17123,12 @@
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17283,12 +17283,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17563,12 +17563,12 @@
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17923,12 +17923,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18443,12 +18443,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19201,12 +19201,12 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19445,12 +19445,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19525,12 +19525,12 @@
       <c r="H460" t="inlineStr"/>
       <c r="I460" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20005,12 +20005,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20405,12 +20405,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20565,12 +20565,12 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20805,12 +20805,12 @@
       <c r="H492" t="inlineStr"/>
       <c r="I492" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21129,12 +21129,12 @@
       <c r="H500" t="inlineStr"/>
       <c r="I500" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22173,12 +22173,12 @@
       <c r="H526" t="inlineStr"/>
       <c r="I526" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22413,12 +22413,12 @@
       <c r="H532" t="inlineStr"/>
       <c r="I532" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23497,12 +23497,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23577,12 +23577,12 @@
       <c r="H561" t="inlineStr"/>
       <c r="I561" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23657,12 +23657,12 @@
       <c r="H563" t="inlineStr"/>
       <c r="I563" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24217,12 +24217,12 @@
       <c r="H577" t="inlineStr"/>
       <c r="I577" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24297,12 +24297,12 @@
       <c r="H579" t="inlineStr"/>
       <c r="I579" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25137,12 +25137,12 @@
       <c r="H600" t="inlineStr"/>
       <c r="I600" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25337,12 +25337,12 @@
       <c r="H605" t="inlineStr"/>
       <c r="I605" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26337,12 +26337,12 @@
       <c r="H630" t="inlineStr"/>
       <c r="I630" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26657,12 +26657,12 @@
       <c r="H638" t="inlineStr"/>
       <c r="I638" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26697,12 +26697,12 @@
       <c r="H639" t="inlineStr"/>
       <c r="I639" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26737,12 +26737,12 @@
       <c r="H640" t="inlineStr"/>
       <c r="I640" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27017,12 +27017,12 @@
       <c r="H647" t="inlineStr"/>
       <c r="I647" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27537,12 +27537,12 @@
       <c r="H660" t="inlineStr"/>
       <c r="I660" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27657,12 +27657,12 @@
       <c r="H663" t="inlineStr"/>
       <c r="I663" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27981,12 +27981,12 @@
       <c r="H671" t="inlineStr"/>
       <c r="I671" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28301,12 +28301,12 @@
       <c r="H679" t="inlineStr"/>
       <c r="I679" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28461,12 +28461,12 @@
       <c r="H683" t="inlineStr"/>
       <c r="I683" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
